--- a/lowe/edd/data/SAND$HWS.xlsx
+++ b/lowe/edd/data/SAND$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1802,14 +1802,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH122"/>
+  <dimension ref="A1:JI122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1819,12 +1819,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1852,12 +1852,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2672,11 +2672,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3477,10 +3480,13 @@
         <v>1545400</v>
       </c>
       <c r="JH9" s="11">
-        <v>1533600</v>
+        <v>1536300</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>1534700</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4281,10 +4287,13 @@
         <v>1439000</v>
       </c>
       <c r="JH10" s="11">
-        <v>1431800</v>
+        <v>1434700</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>1448600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5085,10 +5094,13 @@
         <v>106300</v>
       </c>
       <c r="JH11" s="11">
-        <v>101700</v>
+        <v>101600</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>86100</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5891,8 +5903,11 @@
       <c r="JH12" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6693,10 +6708,13 @@
         <v>1411400</v>
       </c>
       <c r="JH13" s="11">
-        <v>1416700</v>
+        <v>1419300</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1422900</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7499,8 +7517,11 @@
       <c r="JH14" s="11">
         <v>9400</v>
       </c>
+      <c r="JI14" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8301,10 +8322,13 @@
         <v>1402000</v>
       </c>
       <c r="JH15" s="11">
-        <v>1407300</v>
+        <v>1409900</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>1413500</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9105,10 +9129,13 @@
         <v>1180600</v>
       </c>
       <c r="JH16" s="11">
-        <v>1182400</v>
+        <v>1185100</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>1179200</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9909,10 +9936,13 @@
         <v>201400</v>
       </c>
       <c r="JH17" s="11">
-        <v>204200</v>
+        <v>203200</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>201100</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10713,10 +10743,13 @@
         <v>87200</v>
       </c>
       <c r="JH18" s="11">
-        <v>90600</v>
+        <v>89600</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>88600</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11519,8 +11552,11 @@
       <c r="JH19" s="11">
         <v>300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12321,10 +12357,13 @@
         <v>86900</v>
       </c>
       <c r="JH20" s="11">
-        <v>90300</v>
+        <v>89300</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>88300</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13125,10 +13164,13 @@
         <v>20600</v>
       </c>
       <c r="JH21" s="11">
-        <v>20800</v>
+        <v>20600</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13929,10 +13971,13 @@
         <v>8800</v>
       </c>
       <c r="JH22" s="11">
-        <v>9500</v>
+        <v>8900</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14733,10 +14778,13 @@
         <v>57500</v>
       </c>
       <c r="JH23" s="11">
-        <v>60000</v>
+        <v>59800</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>59200</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15537,10 +15585,13 @@
         <v>11800</v>
       </c>
       <c r="JH24" s="11">
+        <v>12000</v>
+      </c>
+      <c r="JI24" s="11">
         <v>12100</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16341,10 +16392,13 @@
         <v>23900</v>
       </c>
       <c r="JH25" s="11">
-        <v>24300</v>
+        <v>24100</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>23700</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17145,10 +17199,13 @@
         <v>15500</v>
       </c>
       <c r="JH26" s="11">
-        <v>16900</v>
+        <v>17000</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>16800</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17951,8 +18008,11 @@
       <c r="JH27" s="11">
         <v>6700</v>
       </c>
+      <c r="JI27" s="11">
+        <v>6600</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18755,8 +18815,11 @@
       <c r="JH28" s="11">
         <v>113600</v>
       </c>
+      <c r="JI28" s="11">
+        <v>112500</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19557,10 +19620,13 @@
         <v>86200</v>
       </c>
       <c r="JH29" s="11">
-        <v>85300</v>
+        <v>85200</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>84100</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20363,8 +20429,11 @@
       <c r="JH30" s="11">
         <v>31900</v>
       </c>
+      <c r="JI30" s="11">
+        <v>31600</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -21167,8 +21236,11 @@
       <c r="JH31" s="11">
         <v>19400</v>
       </c>
+      <c r="JI31" s="11">
+        <v>19100</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21971,8 +22043,11 @@
       <c r="JH32" s="11">
         <v>10600</v>
       </c>
+      <c r="JI32" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22775,8 +22850,11 @@
       <c r="JH33" s="11">
         <v>7600</v>
       </c>
+      <c r="JI33" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23577,10 +23655,13 @@
         <v>28000</v>
       </c>
       <c r="JH34" s="11">
-        <v>28300</v>
+        <v>28400</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>28400</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -24381,10 +24462,13 @@
         <v>1200600</v>
       </c>
       <c r="JH35" s="11">
-        <v>1203100</v>
+        <v>1206700</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>1212400</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -25185,10 +25269,13 @@
         <v>979200</v>
       </c>
       <c r="JH36" s="11">
-        <v>978200</v>
+        <v>981900</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>978100</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25989,10 +26076,13 @@
         <v>209200</v>
       </c>
       <c r="JH37" s="11">
-        <v>208500</v>
+        <v>209400</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>208700</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26793,10 +26883,13 @@
         <v>40000</v>
       </c>
       <c r="JH38" s="11">
-        <v>39400</v>
+        <v>39600</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>39000</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27597,10 +27690,13 @@
         <v>21600</v>
       </c>
       <c r="JH39" s="11">
-        <v>21300</v>
+        <v>21400</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>20900</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28401,10 +28497,13 @@
         <v>15500</v>
       </c>
       <c r="JH40" s="11">
+        <v>15500</v>
+      </c>
+      <c r="JI40" s="11">
         <v>15400</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>42</v>
       </c>
@@ -29205,10 +29304,13 @@
         <v>137400</v>
       </c>
       <c r="JH41" s="11">
-        <v>136900</v>
+        <v>137700</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>137300</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -30011,8 +30113,11 @@
       <c r="JH42" s="11">
         <v>15400</v>
       </c>
+      <c r="JI42" s="11">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -30815,8 +30920,11 @@
       <c r="JH43" s="11">
         <v>11500</v>
       </c>
+      <c r="JI43" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -31619,8 +31727,11 @@
       <c r="JH44" s="11">
         <v>31900</v>
       </c>
+      <c r="JI44" s="11">
+        <v>31800</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -32423,8 +32534,11 @@
       <c r="JH45" s="11">
         <v>28100</v>
       </c>
+      <c r="JI45" s="11">
+        <v>27900</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>48</v>
       </c>
@@ -33227,8 +33341,11 @@
       <c r="JH46" s="11">
         <v>7900</v>
       </c>
+      <c r="JI46" s="11">
+        <v>8000</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>49</v>
       </c>
@@ -34029,10 +34146,13 @@
         <v>15200</v>
       </c>
       <c r="JH47" s="11">
-        <v>14800</v>
+        <v>15100</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>15000</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>50</v>
       </c>
@@ -34835,8 +34955,11 @@
       <c r="JH48" s="11">
         <v>11300</v>
       </c>
+      <c r="JI48" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>53</v>
       </c>
@@ -35639,8 +35762,11 @@
       <c r="JH49" s="11">
         <v>6700</v>
       </c>
+      <c r="JI49" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>54</v>
       </c>
@@ -36441,10 +36567,13 @@
         <v>24600</v>
       </c>
       <c r="JH50" s="11">
-        <v>24700</v>
+        <v>24600</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>25100</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>55</v>
       </c>
@@ -37245,10 +37374,13 @@
         <v>8100</v>
       </c>
       <c r="JH51" s="11">
-        <v>8200</v>
+        <v>8100</v>
+      </c>
+      <c r="JI51" s="11">
+        <v>8300</v>
       </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>56</v>
       </c>
@@ -38051,8 +38183,11 @@
       <c r="JH52" s="11">
         <v>16500</v>
       </c>
+      <c r="JI52" s="11">
+        <v>16800</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>57</v>
       </c>
@@ -38855,8 +38990,11 @@
       <c r="JH53" s="11">
         <v>7400</v>
       </c>
+      <c r="JI53" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>59</v>
       </c>
@@ -39657,10 +39795,13 @@
         <v>31800</v>
       </c>
       <c r="JH54" s="11">
-        <v>32200</v>
+        <v>32100</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>32400</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>60</v>
       </c>
@@ -40463,8 +40604,11 @@
       <c r="JH55" s="11">
         <v>4800</v>
       </c>
+      <c r="JI55" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>61</v>
       </c>
@@ -41265,10 +41409,13 @@
         <v>27000</v>
       </c>
       <c r="JH56" s="11">
-        <v>27400</v>
+        <v>27300</v>
+      </c>
+      <c r="JI56" s="11">
+        <v>27600</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>62</v>
       </c>
@@ -42071,8 +42218,11 @@
       <c r="JH57" s="11">
         <v>2300</v>
       </c>
+      <c r="JI57" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>64</v>
       </c>
@@ -42873,10 +43023,13 @@
         <v>22600</v>
       </c>
       <c r="JH58" s="11">
-        <v>22600</v>
+        <v>22700</v>
+      </c>
+      <c r="JI58" s="11">
+        <v>22700</v>
       </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>65</v>
       </c>
@@ -43679,8 +43832,11 @@
       <c r="JH59" s="11">
         <v>7100</v>
       </c>
+      <c r="JI59" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>67</v>
       </c>
@@ -44483,8 +44639,11 @@
       <c r="JH60" s="11">
         <v>5500</v>
       </c>
+      <c r="JI60" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>68</v>
       </c>
@@ -45287,8 +45446,11 @@
       <c r="JH61" s="11">
         <v>2700</v>
       </c>
+      <c r="JI61" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>69</v>
       </c>
@@ -46091,8 +46253,11 @@
       <c r="JH62" s="11">
         <v>6200</v>
       </c>
+      <c r="JI62" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>71</v>
       </c>
@@ -46893,10 +47058,13 @@
         <v>72800</v>
       </c>
       <c r="JH63" s="11">
+        <v>71600</v>
+      </c>
+      <c r="JI63" s="11">
         <v>71900</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>72</v>
       </c>
@@ -47697,10 +47865,13 @@
         <v>43400</v>
       </c>
       <c r="JH64" s="11">
-        <v>43200</v>
+        <v>42700</v>
+      </c>
+      <c r="JI64" s="11">
+        <v>42200</v>
       </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>73</v>
       </c>
@@ -48501,10 +48672,13 @@
         <v>16700</v>
       </c>
       <c r="JH65" s="11">
-        <v>16400</v>
+        <v>16500</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>16200</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>74</v>
       </c>
@@ -49305,10 +49479,13 @@
         <v>9100</v>
       </c>
       <c r="JH66" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JI66" s="11">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -50109,10 +50286,13 @@
         <v>17600</v>
       </c>
       <c r="JH67" s="11">
-        <v>17700</v>
+        <v>17000</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>16900</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>77</v>
       </c>
@@ -50913,10 +51093,13 @@
         <v>29400</v>
       </c>
       <c r="JH68" s="11">
-        <v>28700</v>
+        <v>28900</v>
+      </c>
+      <c r="JI68" s="11">
+        <v>29700</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>78</v>
       </c>
@@ -51717,10 +51900,13 @@
         <v>24200</v>
       </c>
       <c r="JH69" s="11">
-        <v>23700</v>
+        <v>23900</v>
+      </c>
+      <c r="JI69" s="11">
+        <v>24500</v>
       </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>80</v>
       </c>
@@ -52521,10 +52707,13 @@
         <v>249500</v>
       </c>
       <c r="JH70" s="11">
-        <v>249700</v>
+        <v>251000</v>
+      </c>
+      <c r="JI70" s="11">
+        <v>252400</v>
       </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>81</v>
       </c>
@@ -53325,10 +53514,13 @@
         <v>147100</v>
       </c>
       <c r="JH71" s="11">
-        <v>146400</v>
+        <v>147700</v>
+      </c>
+      <c r="JI71" s="11">
+        <v>146600</v>
       </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>82</v>
       </c>
@@ -54129,10 +54321,13 @@
         <v>13000</v>
       </c>
       <c r="JH72" s="11">
-        <v>12700</v>
+        <v>12800</v>
+      </c>
+      <c r="JI72" s="11">
+        <v>12800</v>
       </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>83</v>
       </c>
@@ -54933,10 +55128,13 @@
         <v>26600</v>
       </c>
       <c r="JH73" s="11">
+        <v>26500</v>
+      </c>
+      <c r="JI73" s="11">
         <v>26700</v>
       </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>84</v>
       </c>
@@ -55739,8 +55937,11 @@
       <c r="JH74" s="11">
         <v>40800</v>
       </c>
+      <c r="JI74" s="11">
+        <v>41200</v>
+      </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>86</v>
       </c>
@@ -56541,10 +56742,13 @@
         <v>24100</v>
       </c>
       <c r="JH75" s="11">
-        <v>23900</v>
+        <v>24000</v>
+      </c>
+      <c r="JI75" s="11">
+        <v>23800</v>
       </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>87</v>
       </c>
@@ -57345,10 +57549,13 @@
         <v>78300</v>
       </c>
       <c r="JH76" s="11">
-        <v>79400</v>
+        <v>79300</v>
+      </c>
+      <c r="JI76" s="11">
+        <v>82000</v>
       </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>88</v>
       </c>
@@ -58149,10 +58356,13 @@
         <v>74400</v>
       </c>
       <c r="JH77" s="11">
-        <v>75500</v>
+        <v>75400</v>
+      </c>
+      <c r="JI77" s="11">
+        <v>78100</v>
       </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>89</v>
       </c>
@@ -58953,10 +59163,13 @@
         <v>27900</v>
       </c>
       <c r="JH78" s="11">
-        <v>28300</v>
+        <v>28400</v>
+      </c>
+      <c r="JI78" s="11">
+        <v>30000</v>
       </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>90</v>
       </c>
@@ -59757,10 +59970,13 @@
         <v>23500</v>
       </c>
       <c r="JH79" s="11">
-        <v>23800</v>
+        <v>23500</v>
+      </c>
+      <c r="JI79" s="11">
+        <v>23100</v>
       </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>92</v>
       </c>
@@ -60563,8 +60779,11 @@
       <c r="JH80" s="11">
         <v>3900</v>
       </c>
+      <c r="JI80" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>96</v>
       </c>
@@ -61365,10 +61584,13 @@
         <v>212400</v>
       </c>
       <c r="JH81" s="11">
-        <v>211800</v>
+        <v>212100</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>210600</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>97</v>
       </c>
@@ -62169,10 +62391,13 @@
         <v>24700</v>
       </c>
       <c r="JH82" s="11">
-        <v>24500</v>
+        <v>25000</v>
+      </c>
+      <c r="JI82" s="11">
+        <v>25100</v>
       </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>98</v>
       </c>
@@ -62973,10 +63198,13 @@
         <v>8300</v>
       </c>
       <c r="JH83" s="11">
-        <v>8200</v>
+        <v>8600</v>
+      </c>
+      <c r="JI83" s="11">
+        <v>8600</v>
       </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>100</v>
       </c>
@@ -63777,10 +64005,13 @@
         <v>187700</v>
       </c>
       <c r="JH84" s="11">
-        <v>187300</v>
+        <v>187100</v>
+      </c>
+      <c r="JI84" s="11">
+        <v>185500</v>
       </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>101</v>
       </c>
@@ -64581,10 +64812,13 @@
         <v>82400</v>
       </c>
       <c r="JH85" s="11">
-        <v>82800</v>
+        <v>81600</v>
+      </c>
+      <c r="JI85" s="11">
+        <v>81400</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>102</v>
       </c>
@@ -65385,10 +65619,13 @@
         <v>22800</v>
       </c>
       <c r="JH86" s="11">
-        <v>22800</v>
+        <v>22500</v>
+      </c>
+      <c r="JI86" s="11">
+        <v>22600</v>
       </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>103</v>
       </c>
@@ -66189,10 +66426,13 @@
         <v>27500</v>
       </c>
       <c r="JH87" s="11">
+        <v>26900</v>
+      </c>
+      <c r="JI87" s="11">
         <v>27300</v>
       </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>104</v>
       </c>
@@ -66993,10 +67233,13 @@
         <v>55000</v>
       </c>
       <c r="JH88" s="11">
-        <v>54400</v>
+        <v>56100</v>
+      </c>
+      <c r="JI88" s="11">
+        <v>54200</v>
       </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>105</v>
       </c>
@@ -67797,10 +68040,13 @@
         <v>162600</v>
       </c>
       <c r="JH89" s="11">
-        <v>164600</v>
+        <v>165200</v>
+      </c>
+      <c r="JI89" s="11">
+        <v>163700</v>
       </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>106</v>
       </c>
@@ -68603,8 +68849,11 @@
       <c r="JH90" s="11">
         <v>21900</v>
       </c>
+      <c r="JI90" s="11">
+        <v>21600</v>
+      </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>107</v>
       </c>
@@ -69407,8 +69656,11 @@
       <c r="JH91" s="11">
         <v>14600</v>
       </c>
+      <c r="JI91" s="11">
+        <v>14400</v>
+      </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -70209,10 +70461,13 @@
         <v>140700</v>
       </c>
       <c r="JH92" s="11">
-        <v>142700</v>
+        <v>143300</v>
+      </c>
+      <c r="JI92" s="11">
+        <v>142100</v>
       </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -71015,8 +71270,11 @@
       <c r="JH93" s="11">
         <v>23200</v>
       </c>
+      <c r="JI93" s="11">
+        <v>23100</v>
+      </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>111</v>
       </c>
@@ -71817,10 +72075,13 @@
         <v>118100</v>
       </c>
       <c r="JH94" s="11">
-        <v>119500</v>
+        <v>120100</v>
+      </c>
+      <c r="JI94" s="11">
+        <v>119000</v>
       </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>112</v>
       </c>
@@ -72261,10 +72522,13 @@
         <v>111000</v>
       </c>
       <c r="JH95" s="11">
-        <v>112800</v>
+        <v>113400</v>
+      </c>
+      <c r="JI95" s="11">
+        <v>113000</v>
       </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>116</v>
       </c>
@@ -73065,10 +73329,13 @@
         <v>50100</v>
       </c>
       <c r="JH96" s="11">
-        <v>49100</v>
+        <v>49900</v>
+      </c>
+      <c r="JI96" s="11">
+        <v>48100</v>
       </c>
     </row>
-    <row r="97" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>117</v>
       </c>
@@ -73871,8 +74138,11 @@
       <c r="JH97" s="11">
         <v>12000</v>
       </c>
+      <c r="JI97" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="98" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>118</v>
       </c>
@@ -74673,10 +74943,13 @@
         <v>17800</v>
       </c>
       <c r="JH98" s="11">
-        <v>17900</v>
+        <v>18100</v>
+      </c>
+      <c r="JI98" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="99" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>119</v>
       </c>
@@ -75477,10 +75750,13 @@
         <v>20000</v>
       </c>
       <c r="JH99" s="11">
-        <v>19200</v>
+        <v>19800</v>
+      </c>
+      <c r="JI99" s="11">
+        <v>19100</v>
       </c>
     </row>
-    <row r="100" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>120</v>
       </c>
@@ -76281,10 +76557,13 @@
         <v>221400</v>
       </c>
       <c r="JH100" s="11">
-        <v>224900</v>
+        <v>224800</v>
+      </c>
+      <c r="JI100" s="11">
+        <v>234300</v>
       </c>
     </row>
-    <row r="101" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>121</v>
       </c>
@@ -77087,8 +77366,11 @@
       <c r="JH101" s="11">
         <v>47900</v>
       </c>
+      <c r="JI101" s="11">
+        <v>48000</v>
+      </c>
     </row>
-    <row r="102" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>122</v>
       </c>
@@ -77891,8 +78173,11 @@
       <c r="JH102" s="11">
         <v>23300</v>
       </c>
+      <c r="JI102" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="103" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>123</v>
       </c>
@@ -78695,8 +78980,11 @@
       <c r="JH103" s="11">
         <v>24600</v>
       </c>
+      <c r="JI103" s="11">
+        <v>24700</v>
+      </c>
     </row>
-    <row r="104" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>124</v>
       </c>
@@ -79497,10 +79785,13 @@
         <v>173500</v>
       </c>
       <c r="JH104" s="11">
-        <v>177000</v>
+        <v>176900</v>
+      </c>
+      <c r="JI104" s="11">
+        <v>186300</v>
       </c>
     </row>
-    <row r="105" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>125</v>
       </c>
@@ -80301,10 +80592,13 @@
         <v>46700</v>
       </c>
       <c r="JH105" s="11">
-        <v>46500</v>
+        <v>46700</v>
+      </c>
+      <c r="JI105" s="11">
+        <v>49600</v>
       </c>
     </row>
-    <row r="106" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>126</v>
       </c>
@@ -81105,10 +81399,13 @@
         <v>29000</v>
       </c>
       <c r="JH106" s="11">
-        <v>28800</v>
+        <v>29000</v>
+      </c>
+      <c r="JI106" s="11">
+        <v>31900</v>
       </c>
     </row>
-    <row r="107" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>127</v>
       </c>
@@ -81911,8 +82208,11 @@
       <c r="JH107" s="11">
         <v>17700</v>
       </c>
+      <c r="JI107" s="11">
+        <v>17700</v>
+      </c>
     </row>
-    <row r="108" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>128</v>
       </c>
@@ -82713,10 +83013,13 @@
         <v>126800</v>
       </c>
       <c r="JH108" s="11">
-        <v>130500</v>
+        <v>130200</v>
+      </c>
+      <c r="JI108" s="11">
+        <v>136700</v>
       </c>
     </row>
-    <row r="109" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>129</v>
       </c>
@@ -83519,8 +83822,11 @@
       <c r="JH109" s="11">
         <v>62800</v>
       </c>
+      <c r="JI109" s="11">
+        <v>67700</v>
+      </c>
     </row>
-    <row r="110" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>130</v>
       </c>
@@ -84321,10 +84627,13 @@
         <v>66500</v>
       </c>
       <c r="JH110" s="11">
-        <v>67700</v>
+        <v>67400</v>
+      </c>
+      <c r="JI110" s="11">
+        <v>69000</v>
       </c>
     </row>
-    <row r="111" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>131</v>
       </c>
@@ -85127,8 +85436,11 @@
       <c r="JH111" s="11">
         <v>21000</v>
       </c>
+      <c r="JI111" s="11">
+        <v>22700</v>
+      </c>
     </row>
-    <row r="112" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>132</v>
       </c>
@@ -85929,10 +86241,13 @@
         <v>19300</v>
       </c>
       <c r="JH112" s="11">
-        <v>19400</v>
+        <v>19300</v>
+      </c>
+      <c r="JI112" s="11">
+        <v>19200</v>
       </c>
     </row>
-    <row r="113" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>133</v>
       </c>
@@ -86733,10 +87048,13 @@
         <v>26900</v>
       </c>
       <c r="JH113" s="11">
-        <v>27300</v>
+        <v>27100</v>
+      </c>
+      <c r="JI113" s="11">
+        <v>27100</v>
       </c>
     </row>
-    <row r="115" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>253</v>
       </c>
@@ -86749,7 +87067,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>16</v>
       </c>
@@ -86762,7 +87080,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>254</v>
       </c>
@@ -86775,7 +87093,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>255</v>
       </c>
@@ -86788,7 +87106,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>256</v>
       </c>
@@ -86801,7 +87119,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>257</v>
       </c>
@@ -86814,7 +87132,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>258</v>
       </c>
@@ -86827,7 +87145,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>259</v>
       </c>

--- a/lowe/edd/data/SAND$HWS.xlsx
+++ b/lowe/edd/data/SAND$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1802,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI122"/>
+  <dimension ref="A1:JJ122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1819,12 +1819,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1852,12 +1852,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2675,11 +2675,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3483,10 +3486,13 @@
         <v>1536300</v>
       </c>
       <c r="JI9" s="11">
-        <v>1534700</v>
+        <v>1537800</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1553900</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4290,10 +4296,13 @@
         <v>1434700</v>
       </c>
       <c r="JI10" s="11">
-        <v>1448600</v>
+        <v>1451700</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>1471000</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5097,10 +5106,13 @@
         <v>101600</v>
       </c>
       <c r="JI11" s="11">
-        <v>86100</v>
+        <v>86200</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>82900</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5906,8 +5918,11 @@
       <c r="JI12" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6711,10 +6726,13 @@
         <v>1419300</v>
       </c>
       <c r="JI13" s="11">
-        <v>1422900</v>
+        <v>1425900</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1453400</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7520,8 +7538,11 @@
       <c r="JI14" s="11">
         <v>9400</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8325,10 +8346,13 @@
         <v>1409900</v>
       </c>
       <c r="JI15" s="11">
-        <v>1413500</v>
+        <v>1416500</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>1444000</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9132,10 +9156,13 @@
         <v>1185100</v>
       </c>
       <c r="JI16" s="11">
-        <v>1179200</v>
+        <v>1182300</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>1204700</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9939,10 +9966,13 @@
         <v>203200</v>
       </c>
       <c r="JI17" s="11">
-        <v>201100</v>
+        <v>201400</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>203700</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10748,8 +10778,11 @@
       <c r="JI18" s="11">
         <v>88600</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>90300</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11555,8 +11588,11 @@
       <c r="JI19" s="11">
         <v>300</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12362,8 +12398,11 @@
       <c r="JI20" s="11">
         <v>88300</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>89900</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13167,10 +13206,13 @@
         <v>20600</v>
       </c>
       <c r="JI21" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JJ21" s="11">
         <v>20600</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13974,10 +14016,13 @@
         <v>8900</v>
       </c>
       <c r="JI22" s="11">
-        <v>8500</v>
+        <v>8900</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>8900</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14781,10 +14826,13 @@
         <v>59800</v>
       </c>
       <c r="JI23" s="11">
-        <v>59200</v>
+        <v>58900</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>60400</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15590,8 +15638,11 @@
       <c r="JI24" s="11">
         <v>12100</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16395,10 +16446,13 @@
         <v>24100</v>
       </c>
       <c r="JI25" s="11">
-        <v>23700</v>
+        <v>23600</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>25300</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17202,10 +17256,13 @@
         <v>17000</v>
       </c>
       <c r="JI26" s="11">
-        <v>16800</v>
+        <v>16600</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -18011,8 +18068,11 @@
       <c r="JI27" s="11">
         <v>6600</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>6500</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18816,10 +18876,13 @@
         <v>113600</v>
       </c>
       <c r="JI28" s="11">
-        <v>112500</v>
+        <v>112800</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>113400</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19623,10 +19686,13 @@
         <v>85200</v>
       </c>
       <c r="JI29" s="11">
-        <v>84100</v>
+        <v>84400</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>84900</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20430,10 +20496,13 @@
         <v>31900</v>
       </c>
       <c r="JI30" s="11">
-        <v>31600</v>
+        <v>31900</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>32200</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -21237,10 +21306,13 @@
         <v>19400</v>
       </c>
       <c r="JI31" s="11">
-        <v>19100</v>
+        <v>19200</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>19300</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -22046,8 +22118,11 @@
       <c r="JI32" s="11">
         <v>10400</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22853,8 +22928,11 @@
       <c r="JI33" s="11">
         <v>7700</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23660,8 +23738,11 @@
       <c r="JI34" s="11">
         <v>28400</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>28500</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -24465,10 +24546,13 @@
         <v>1206700</v>
       </c>
       <c r="JI35" s="11">
-        <v>1212400</v>
+        <v>1215100</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>1240300</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -25272,10 +25356,13 @@
         <v>981900</v>
       </c>
       <c r="JI36" s="11">
-        <v>978100</v>
+        <v>980900</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>1001000</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -26079,10 +26166,13 @@
         <v>209400</v>
       </c>
       <c r="JI37" s="11">
-        <v>208700</v>
+        <v>208800</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>211900</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26886,10 +26976,13 @@
         <v>39600</v>
       </c>
       <c r="JI38" s="11">
-        <v>39000</v>
+        <v>38900</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>39400</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27695,8 +27788,11 @@
       <c r="JI39" s="11">
         <v>20900</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>21300</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28500,10 +28596,13 @@
         <v>15500</v>
       </c>
       <c r="JI40" s="11">
-        <v>15400</v>
+        <v>15500</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>15600</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>42</v>
       </c>
@@ -29307,10 +29406,13 @@
         <v>137700</v>
       </c>
       <c r="JI41" s="11">
-        <v>137300</v>
+        <v>137500</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>139900</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -30116,8 +30218,11 @@
       <c r="JI42" s="11">
         <v>15300</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -30923,8 +31028,11 @@
       <c r="JI43" s="11">
         <v>11300</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -31728,10 +31836,13 @@
         <v>31900</v>
       </c>
       <c r="JI44" s="11">
-        <v>31800</v>
+        <v>31900</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>32000</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -32535,10 +32646,13 @@
         <v>28100</v>
       </c>
       <c r="JI45" s="11">
-        <v>27900</v>
+        <v>28100</v>
+      </c>
+      <c r="JJ45" s="11">
+        <v>28100</v>
       </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>48</v>
       </c>
@@ -33344,8 +33458,11 @@
       <c r="JI46" s="11">
         <v>8000</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>49</v>
       </c>
@@ -34151,8 +34268,11 @@
       <c r="JI47" s="11">
         <v>15000</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>15400</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>50</v>
       </c>
@@ -34958,8 +35078,11 @@
       <c r="JI48" s="11">
         <v>11200</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>53</v>
       </c>
@@ -35765,8 +35888,11 @@
       <c r="JI49" s="11">
         <v>6800</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>54</v>
       </c>
@@ -36572,8 +36698,11 @@
       <c r="JI50" s="11">
         <v>25100</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>25900</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>55</v>
       </c>
@@ -37379,8 +37508,11 @@
       <c r="JI51" s="11">
         <v>8300</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>56</v>
       </c>
@@ -38186,8 +38318,11 @@
       <c r="JI52" s="11">
         <v>16800</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>17100</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>57</v>
       </c>
@@ -38993,8 +39128,11 @@
       <c r="JI53" s="11">
         <v>7400</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>59</v>
       </c>
@@ -39800,8 +39938,11 @@
       <c r="JI54" s="11">
         <v>32400</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>32600</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>60</v>
       </c>
@@ -40607,8 +40748,11 @@
       <c r="JI55" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>61</v>
       </c>
@@ -41414,8 +41558,11 @@
       <c r="JI56" s="11">
         <v>27600</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>27800</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>62</v>
       </c>
@@ -42221,8 +42368,11 @@
       <c r="JI57" s="11">
         <v>2300</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>64</v>
       </c>
@@ -43026,10 +43176,13 @@
         <v>22700</v>
       </c>
       <c r="JI58" s="11">
-        <v>22700</v>
+        <v>22800</v>
+      </c>
+      <c r="JJ58" s="11">
+        <v>22900</v>
       </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>65</v>
       </c>
@@ -43835,8 +43988,11 @@
       <c r="JI59" s="11">
         <v>7100</v>
       </c>
+      <c r="JJ59" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>67</v>
       </c>
@@ -44642,8 +44798,11 @@
       <c r="JI60" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>68</v>
       </c>
@@ -45449,8 +45608,11 @@
       <c r="JI61" s="11">
         <v>2700</v>
       </c>
+      <c r="JJ61" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>69</v>
       </c>
@@ -46256,8 +46418,11 @@
       <c r="JI62" s="11">
         <v>6200</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>71</v>
       </c>
@@ -47061,10 +47226,13 @@
         <v>71600</v>
       </c>
       <c r="JI63" s="11">
-        <v>71900</v>
+        <v>71700</v>
+      </c>
+      <c r="JJ63" s="11">
+        <v>72500</v>
       </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>72</v>
       </c>
@@ -47868,10 +48036,13 @@
         <v>42700</v>
       </c>
       <c r="JI64" s="11">
-        <v>42200</v>
+        <v>42100</v>
+      </c>
+      <c r="JJ64" s="11">
+        <v>42500</v>
       </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>73</v>
       </c>
@@ -48677,8 +48848,11 @@
       <c r="JI65" s="11">
         <v>16200</v>
       </c>
+      <c r="JJ65" s="11">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>74</v>
       </c>
@@ -49482,10 +49656,13 @@
         <v>9200</v>
       </c>
       <c r="JI66" s="11">
-        <v>9100</v>
+        <v>9000</v>
+      </c>
+      <c r="JJ66" s="11">
+        <v>9200</v>
       </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -50291,8 +50468,11 @@
       <c r="JI67" s="11">
         <v>16900</v>
       </c>
+      <c r="JJ67" s="11">
+        <v>17100</v>
+      </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>77</v>
       </c>
@@ -51096,10 +51276,13 @@
         <v>28900</v>
       </c>
       <c r="JI68" s="11">
-        <v>29700</v>
+        <v>29600</v>
+      </c>
+      <c r="JJ68" s="11">
+        <v>30000</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>78</v>
       </c>
@@ -51903,10 +52086,13 @@
         <v>23900</v>
       </c>
       <c r="JI69" s="11">
-        <v>24500</v>
+        <v>24400</v>
+      </c>
+      <c r="JJ69" s="11">
+        <v>25100</v>
       </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>80</v>
       </c>
@@ -52710,10 +52896,13 @@
         <v>251000</v>
       </c>
       <c r="JI70" s="11">
-        <v>252400</v>
+        <v>253300</v>
+      </c>
+      <c r="JJ70" s="11">
+        <v>259800</v>
       </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>81</v>
       </c>
@@ -53517,10 +53706,13 @@
         <v>147700</v>
       </c>
       <c r="JI71" s="11">
-        <v>146600</v>
+        <v>147400</v>
+      </c>
+      <c r="JJ71" s="11">
+        <v>150000</v>
       </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>82</v>
       </c>
@@ -54324,10 +54516,13 @@
         <v>12800</v>
       </c>
       <c r="JI72" s="11">
-        <v>12800</v>
+        <v>12600</v>
+      </c>
+      <c r="JJ72" s="11">
+        <v>12700</v>
       </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>83</v>
       </c>
@@ -55131,10 +55326,13 @@
         <v>26500</v>
       </c>
       <c r="JI73" s="11">
-        <v>26700</v>
+        <v>27100</v>
+      </c>
+      <c r="JJ73" s="11">
+        <v>26900</v>
       </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>84</v>
       </c>
@@ -55938,10 +56136,13 @@
         <v>40800</v>
       </c>
       <c r="JI74" s="11">
-        <v>41200</v>
+        <v>40900</v>
+      </c>
+      <c r="JJ74" s="11">
+        <v>41500</v>
       </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>86</v>
       </c>
@@ -56745,10 +56946,13 @@
         <v>24000</v>
       </c>
       <c r="JI75" s="11">
-        <v>23800</v>
+        <v>23900</v>
+      </c>
+      <c r="JJ75" s="11">
+        <v>23900</v>
       </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>87</v>
       </c>
@@ -57554,8 +57758,11 @@
       <c r="JI76" s="11">
         <v>82000</v>
       </c>
+      <c r="JJ76" s="11">
+        <v>85900</v>
+      </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>88</v>
       </c>
@@ -58361,8 +58568,11 @@
       <c r="JI77" s="11">
         <v>78100</v>
       </c>
+      <c r="JJ77" s="11">
+        <v>81900</v>
+      </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>89</v>
       </c>
@@ -59168,8 +59378,11 @@
       <c r="JI78" s="11">
         <v>30000</v>
       </c>
+      <c r="JJ78" s="11">
+        <v>32100</v>
+      </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>90</v>
       </c>
@@ -59973,10 +60186,13 @@
         <v>23500</v>
       </c>
       <c r="JI79" s="11">
-        <v>23100</v>
+        <v>23400</v>
+      </c>
+      <c r="JJ79" s="11">
+        <v>23600</v>
       </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>92</v>
       </c>
@@ -60782,8 +60998,11 @@
       <c r="JI80" s="11">
         <v>3900</v>
       </c>
+      <c r="JJ80" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>96</v>
       </c>
@@ -61587,10 +61806,13 @@
         <v>212100</v>
       </c>
       <c r="JI81" s="11">
-        <v>210600</v>
+        <v>211300</v>
+      </c>
+      <c r="JJ81" s="11">
+        <v>214200</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>97</v>
       </c>
@@ -62394,10 +62616,13 @@
         <v>25000</v>
       </c>
       <c r="JI82" s="11">
-        <v>25100</v>
+        <v>24800</v>
+      </c>
+      <c r="JJ82" s="11">
+        <v>26300</v>
       </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>98</v>
       </c>
@@ -63201,10 +63426,13 @@
         <v>8600</v>
       </c>
       <c r="JI83" s="11">
-        <v>8600</v>
+        <v>8800</v>
+      </c>
+      <c r="JJ83" s="11">
+        <v>9700</v>
       </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>100</v>
       </c>
@@ -64008,10 +64236,13 @@
         <v>187100</v>
       </c>
       <c r="JI84" s="11">
-        <v>185500</v>
+        <v>186500</v>
+      </c>
+      <c r="JJ84" s="11">
+        <v>187900</v>
       </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>101</v>
       </c>
@@ -64815,10 +65046,13 @@
         <v>81600</v>
       </c>
       <c r="JI85" s="11">
-        <v>81400</v>
+        <v>81900</v>
+      </c>
+      <c r="JJ85" s="11">
+        <v>82400</v>
       </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>102</v>
       </c>
@@ -65624,8 +65858,11 @@
       <c r="JI86" s="11">
         <v>22600</v>
       </c>
+      <c r="JJ86" s="11">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>103</v>
       </c>
@@ -66429,10 +66666,13 @@
         <v>26900</v>
       </c>
       <c r="JI87" s="11">
-        <v>27300</v>
+        <v>27400</v>
+      </c>
+      <c r="JJ87" s="11">
+        <v>27600</v>
       </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>104</v>
       </c>
@@ -67236,10 +67476,13 @@
         <v>56100</v>
       </c>
       <c r="JI88" s="11">
-        <v>54200</v>
+        <v>54600</v>
+      </c>
+      <c r="JJ88" s="11">
+        <v>54900</v>
       </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>105</v>
       </c>
@@ -68043,10 +68286,13 @@
         <v>165200</v>
       </c>
       <c r="JI89" s="11">
-        <v>163700</v>
+        <v>163100</v>
+      </c>
+      <c r="JJ89" s="11">
+        <v>168500</v>
       </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>106</v>
       </c>
@@ -68850,10 +69096,13 @@
         <v>21900</v>
       </c>
       <c r="JI90" s="11">
-        <v>21600</v>
+        <v>20200</v>
+      </c>
+      <c r="JJ90" s="11">
+        <v>21200</v>
       </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>107</v>
       </c>
@@ -69657,10 +69906,13 @@
         <v>14600</v>
       </c>
       <c r="JI91" s="11">
-        <v>14400</v>
+        <v>12800</v>
+      </c>
+      <c r="JJ91" s="11">
+        <v>13300</v>
       </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -70464,10 +70716,13 @@
         <v>143300</v>
       </c>
       <c r="JI92" s="11">
-        <v>142100</v>
+        <v>142900</v>
+      </c>
+      <c r="JJ92" s="11">
+        <v>147300</v>
       </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -71271,10 +71526,13 @@
         <v>23200</v>
       </c>
       <c r="JI93" s="11">
-        <v>23100</v>
+        <v>23000</v>
+      </c>
+      <c r="JJ93" s="11">
+        <v>23000</v>
       </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>111</v>
       </c>
@@ -72078,10 +72336,13 @@
         <v>120100</v>
       </c>
       <c r="JI94" s="11">
-        <v>119000</v>
+        <v>119900</v>
+      </c>
+      <c r="JJ94" s="11">
+        <v>124300</v>
       </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>112</v>
       </c>
@@ -72525,10 +72786,13 @@
         <v>113400</v>
       </c>
       <c r="JI95" s="11">
-        <v>113000</v>
+        <v>113800</v>
+      </c>
+      <c r="JJ95" s="11">
+        <v>117800</v>
       </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>116</v>
       </c>
@@ -73332,10 +73596,13 @@
         <v>49900</v>
       </c>
       <c r="JI96" s="11">
-        <v>48100</v>
+        <v>49900</v>
+      </c>
+      <c r="JJ96" s="11">
+        <v>51200</v>
       </c>
     </row>
-    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>117</v>
       </c>
@@ -74139,10 +74406,13 @@
         <v>12000</v>
       </c>
       <c r="JI97" s="11">
-        <v>11800</v>
+        <v>12100</v>
+      </c>
+      <c r="JJ97" s="11">
+        <v>12100</v>
       </c>
     </row>
-    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>118</v>
       </c>
@@ -74946,10 +75216,13 @@
         <v>18100</v>
       </c>
       <c r="JI98" s="11">
-        <v>17200</v>
+        <v>17900</v>
+      </c>
+      <c r="JJ98" s="11">
+        <v>18500</v>
       </c>
     </row>
-    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>119</v>
       </c>
@@ -75753,10 +76026,13 @@
         <v>19800</v>
       </c>
       <c r="JI99" s="11">
-        <v>19100</v>
+        <v>19900</v>
+      </c>
+      <c r="JJ99" s="11">
+        <v>20600</v>
       </c>
     </row>
-    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>120</v>
       </c>
@@ -76560,10 +76836,13 @@
         <v>224800</v>
       </c>
       <c r="JI100" s="11">
-        <v>234300</v>
+        <v>234200</v>
+      </c>
+      <c r="JJ100" s="11">
+        <v>239300</v>
       </c>
     </row>
-    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>121</v>
       </c>
@@ -77369,8 +77648,11 @@
       <c r="JI101" s="11">
         <v>48000</v>
       </c>
+      <c r="JJ101" s="11">
+        <v>48000</v>
+      </c>
     </row>
-    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>122</v>
       </c>
@@ -78176,8 +78458,11 @@
       <c r="JI102" s="11">
         <v>23300</v>
       </c>
+      <c r="JJ102" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>123</v>
       </c>
@@ -78983,8 +79268,11 @@
       <c r="JI103" s="11">
         <v>24700</v>
       </c>
+      <c r="JJ103" s="11">
+        <v>24700</v>
+      </c>
     </row>
-    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>124</v>
       </c>
@@ -79788,10 +80076,13 @@
         <v>176900</v>
       </c>
       <c r="JI104" s="11">
-        <v>186300</v>
+        <v>186200</v>
+      </c>
+      <c r="JJ104" s="11">
+        <v>191300</v>
       </c>
     </row>
-    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>125</v>
       </c>
@@ -80597,8 +80888,11 @@
       <c r="JI105" s="11">
         <v>49600</v>
       </c>
+      <c r="JJ105" s="11">
+        <v>52800</v>
+      </c>
     </row>
-    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>126</v>
       </c>
@@ -81404,8 +81698,11 @@
       <c r="JI106" s="11">
         <v>31900</v>
       </c>
+      <c r="JJ106" s="11">
+        <v>35000</v>
+      </c>
     </row>
-    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>127</v>
       </c>
@@ -82211,8 +82508,11 @@
       <c r="JI107" s="11">
         <v>17700</v>
       </c>
+      <c r="JJ107" s="11">
+        <v>17800</v>
+      </c>
     </row>
-    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>128</v>
       </c>
@@ -83016,10 +83316,13 @@
         <v>130200</v>
       </c>
       <c r="JI108" s="11">
-        <v>136700</v>
+        <v>136600</v>
+      </c>
+      <c r="JJ108" s="11">
+        <v>138500</v>
       </c>
     </row>
-    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>129</v>
       </c>
@@ -83825,8 +84128,11 @@
       <c r="JI109" s="11">
         <v>67700</v>
       </c>
+      <c r="JJ109" s="11">
+        <v>70300</v>
+      </c>
     </row>
-    <row r="110" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>130</v>
       </c>
@@ -84630,10 +84936,13 @@
         <v>67400</v>
       </c>
       <c r="JI110" s="11">
-        <v>69000</v>
+        <v>68900</v>
+      </c>
+      <c r="JJ110" s="11">
+        <v>68200</v>
       </c>
     </row>
-    <row r="111" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>131</v>
       </c>
@@ -85439,8 +85748,11 @@
       <c r="JI111" s="11">
         <v>22700</v>
       </c>
+      <c r="JJ111" s="11">
+        <v>22300</v>
+      </c>
     </row>
-    <row r="112" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>132</v>
       </c>
@@ -86246,8 +86558,11 @@
       <c r="JI112" s="11">
         <v>19200</v>
       </c>
+      <c r="JJ112" s="11">
+        <v>18900</v>
+      </c>
     </row>
-    <row r="113" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>133</v>
       </c>
@@ -87051,10 +87366,13 @@
         <v>27100</v>
       </c>
       <c r="JI113" s="11">
-        <v>27100</v>
+        <v>27000</v>
+      </c>
+      <c r="JJ113" s="11">
+        <v>27000</v>
       </c>
     </row>
-    <row r="115" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>253</v>
       </c>
@@ -87067,7 +87385,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>16</v>
       </c>
@@ -87080,7 +87398,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>254</v>
       </c>
@@ -87093,7 +87411,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>255</v>
       </c>
@@ -87106,7 +87424,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>256</v>
       </c>
@@ -87119,7 +87437,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>257</v>
       </c>
@@ -87132,7 +87450,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>258</v>
       </c>
@@ -87145,7 +87463,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>259</v>
       </c>

--- a/lowe/edd/data/SAND$HWS.xlsx
+++ b/lowe/edd/data/SAND$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,13 +629,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1802,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ122"/>
+  <dimension ref="A1:JL122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1819,12 +1819,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1852,12 +1852,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2678,11 +2678,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3489,10 +3495,16 @@
         <v>1537800</v>
       </c>
       <c r="JJ9" s="11">
-        <v>1553900</v>
+        <v>1555100</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>1561400</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1554500</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4299,10 +4311,16 @@
         <v>1451700</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1471000</v>
+        <v>1472200</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>1490200</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1488800</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5109,10 +5127,16 @@
         <v>86200</v>
       </c>
       <c r="JJ11" s="11">
-        <v>82900</v>
+        <v>82800</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>71100</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>65800</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5921,8 +5945,14 @@
       <c r="JJ12" s="12">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6729,10 +6759,16 @@
         <v>1425900</v>
       </c>
       <c r="JJ13" s="11">
-        <v>1453400</v>
+        <v>1455000</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>1467500</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1465500</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7541,8 +7577,14 @@
       <c r="JJ14" s="11">
         <v>9400</v>
       </c>
+      <c r="JK14" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8349,10 +8391,16 @@
         <v>1416500</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1444000</v>
+        <v>1445600</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1458300</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1457100</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9159,10 +9207,16 @@
         <v>1182300</v>
       </c>
       <c r="JJ16" s="11">
-        <v>1204700</v>
+        <v>1205400</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>1216500</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1216100</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9971,8 +10025,14 @@
       <c r="JJ17" s="11">
         <v>203700</v>
       </c>
+      <c r="JK17" s="11">
+        <v>202400</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>199400</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10779,10 +10839,16 @@
         <v>88600</v>
       </c>
       <c r="JJ18" s="11">
-        <v>90300</v>
+        <v>90100</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>89000</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>86500</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11591,8 +11657,14 @@
       <c r="JJ19" s="11">
         <v>400</v>
       </c>
+      <c r="JK19" s="11">
+        <v>400</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12399,10 +12471,16 @@
         <v>88300</v>
       </c>
       <c r="JJ20" s="11">
-        <v>89900</v>
+        <v>89700</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>88600</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>86200</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13209,10 +13287,16 @@
         <v>20500</v>
       </c>
       <c r="JJ21" s="11">
-        <v>20600</v>
+        <v>20700</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>20400</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -14019,10 +14103,16 @@
         <v>8900</v>
       </c>
       <c r="JJ22" s="11">
-        <v>8900</v>
+        <v>9000</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14829,10 +14919,16 @@
         <v>58900</v>
       </c>
       <c r="JJ23" s="11">
-        <v>60400</v>
+        <v>60000</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>59400</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>57600</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15641,8 +15737,14 @@
       <c r="JJ24" s="11">
         <v>12000</v>
       </c>
+      <c r="JK24" s="11">
+        <v>11900</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16449,10 +16551,16 @@
         <v>23600</v>
       </c>
       <c r="JJ25" s="11">
-        <v>25300</v>
+        <v>24900</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>24700</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>24000</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17261,8 +17369,14 @@
       <c r="JJ26" s="11">
         <v>16600</v>
       </c>
+      <c r="JK26" s="11">
+        <v>16300</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>15700</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -18071,8 +18185,14 @@
       <c r="JJ27" s="11">
         <v>6500</v>
       </c>
+      <c r="JK27" s="11">
+        <v>6500</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18879,10 +18999,16 @@
         <v>112800</v>
       </c>
       <c r="JJ28" s="11">
+        <v>113600</v>
+      </c>
+      <c r="JK28" s="11">
         <v>113400</v>
       </c>
+      <c r="JL28" s="11">
+        <v>112900</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19689,10 +19815,16 @@
         <v>84400</v>
       </c>
       <c r="JJ29" s="11">
-        <v>84900</v>
+        <v>85100</v>
+      </c>
+      <c r="JK29" s="11">
+        <v>85100</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>84700</v>
       </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20499,10 +20631,16 @@
         <v>31900</v>
       </c>
       <c r="JJ30" s="11">
-        <v>32200</v>
+        <v>31700</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>31800</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>31700</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -21311,8 +21449,14 @@
       <c r="JJ31" s="11">
         <v>19300</v>
       </c>
+      <c r="JK31" s="11">
+        <v>19100</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>19000</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -22121,8 +22265,14 @@
       <c r="JJ32" s="11">
         <v>10500</v>
       </c>
+      <c r="JK32" s="11">
+        <v>10300</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22931,8 +23081,14 @@
       <c r="JJ33" s="11">
         <v>7700</v>
       </c>
+      <c r="JK33" s="11">
+        <v>7700</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23741,8 +23897,14 @@
       <c r="JJ34" s="11">
         <v>28500</v>
       </c>
+      <c r="JK34" s="11">
+        <v>28300</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>28200</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -24549,10 +24711,16 @@
         <v>1215100</v>
       </c>
       <c r="JJ35" s="11">
-        <v>1240300</v>
+        <v>1241900</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>1255900</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>1257700</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -25359,10 +25527,16 @@
         <v>980900</v>
       </c>
       <c r="JJ36" s="11">
-        <v>1001000</v>
+        <v>1001700</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>1014100</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>1016700</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -26169,10 +26343,16 @@
         <v>208800</v>
       </c>
       <c r="JJ37" s="11">
-        <v>211900</v>
+        <v>212400</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>219700</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>222200</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26979,10 +27159,16 @@
         <v>38900</v>
       </c>
       <c r="JJ38" s="11">
+        <v>39600</v>
+      </c>
+      <c r="JK38" s="11">
         <v>39400</v>
       </c>
+      <c r="JL38" s="11">
+        <v>40000</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27789,10 +27975,16 @@
         <v>20900</v>
       </c>
       <c r="JJ39" s="11">
-        <v>21300</v>
+        <v>21500</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>21400</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>22100</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28601,8 +28793,14 @@
       <c r="JJ40" s="11">
         <v>15600</v>
       </c>
+      <c r="JK40" s="11">
+        <v>15600</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>42</v>
       </c>
@@ -29411,8 +29609,14 @@
       <c r="JJ41" s="11">
         <v>139900</v>
       </c>
+      <c r="JK41" s="11">
+        <v>145500</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>146700</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -30219,10 +30423,16 @@
         <v>15300</v>
       </c>
       <c r="JJ42" s="11">
-        <v>15500</v>
+        <v>15400</v>
+      </c>
+      <c r="JK42" s="11">
+        <v>15400</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>15400</v>
       </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -31031,8 +31241,14 @@
       <c r="JJ43" s="11">
         <v>11100</v>
       </c>
+      <c r="JK43" s="11">
+        <v>11100</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -31841,8 +32057,14 @@
       <c r="JJ44" s="11">
         <v>32000</v>
       </c>
+      <c r="JK44" s="11">
+        <v>32300</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>31700</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -32651,8 +32873,14 @@
       <c r="JJ45" s="11">
         <v>28100</v>
       </c>
+      <c r="JK45" s="11">
+        <v>28400</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>28000</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>48</v>
       </c>
@@ -33459,10 +33687,16 @@
         <v>8000</v>
       </c>
       <c r="JJ46" s="11">
-        <v>8300</v>
+        <v>8200</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>8600</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>8800</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>49</v>
       </c>
@@ -34271,8 +34505,14 @@
       <c r="JJ47" s="11">
         <v>15400</v>
       </c>
+      <c r="JK47" s="11">
+        <v>16900</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>17600</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>50</v>
       </c>
@@ -35079,10 +35319,16 @@
         <v>11200</v>
       </c>
       <c r="JJ48" s="11">
-        <v>11500</v>
+        <v>11600</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>12900</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>13400</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>53</v>
       </c>
@@ -35891,8 +36137,14 @@
       <c r="JJ49" s="11">
         <v>6900</v>
       </c>
+      <c r="JK49" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>54</v>
       </c>
@@ -36701,8 +36953,14 @@
       <c r="JJ50" s="11">
         <v>25900</v>
       </c>
+      <c r="JK50" s="11">
+        <v>28000</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>28400</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>55</v>
       </c>
@@ -37511,8 +37769,14 @@
       <c r="JJ51" s="11">
         <v>8800</v>
       </c>
+      <c r="JK51" s="11">
+        <v>9600</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>56</v>
       </c>
@@ -38321,8 +38585,14 @@
       <c r="JJ52" s="11">
         <v>17100</v>
       </c>
+      <c r="JK52" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>18600</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>57</v>
       </c>
@@ -39131,8 +39401,14 @@
       <c r="JJ53" s="11">
         <v>7600</v>
       </c>
+      <c r="JK53" s="11">
+        <v>7600</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>59</v>
       </c>
@@ -39939,10 +40215,16 @@
         <v>32400</v>
       </c>
       <c r="JJ54" s="11">
-        <v>32600</v>
+        <v>32900</v>
+      </c>
+      <c r="JK54" s="11">
+        <v>34800</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>35500</v>
       </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>60</v>
       </c>
@@ -40749,10 +41031,16 @@
         <v>4800</v>
       </c>
       <c r="JJ55" s="11">
-        <v>4800</v>
+        <v>4900</v>
+      </c>
+      <c r="JK55" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>4900</v>
       </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>61</v>
       </c>
@@ -41559,10 +41847,16 @@
         <v>27600</v>
       </c>
       <c r="JJ56" s="11">
-        <v>27800</v>
+        <v>28000</v>
+      </c>
+      <c r="JK56" s="11">
+        <v>29900</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>30600</v>
       </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>62</v>
       </c>
@@ -42371,8 +42665,14 @@
       <c r="JJ57" s="11">
         <v>2400</v>
       </c>
+      <c r="JK57" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>64</v>
       </c>
@@ -43181,8 +43481,14 @@
       <c r="JJ58" s="11">
         <v>22900</v>
       </c>
+      <c r="JK58" s="11">
+        <v>22900</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>65</v>
       </c>
@@ -43991,8 +44297,14 @@
       <c r="JJ59" s="11">
         <v>7000</v>
       </c>
+      <c r="JK59" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>67</v>
       </c>
@@ -44801,8 +45113,14 @@
       <c r="JJ60" s="11">
         <v>5500</v>
       </c>
+      <c r="JK60" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>68</v>
       </c>
@@ -45611,8 +45929,14 @@
       <c r="JJ61" s="11">
         <v>2700</v>
       </c>
+      <c r="JK61" s="11">
+        <v>2700</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>69</v>
       </c>
@@ -46421,8 +46745,14 @@
       <c r="JJ62" s="11">
         <v>6200</v>
       </c>
+      <c r="JK62" s="11">
+        <v>6200</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>71</v>
       </c>
@@ -47229,10 +47559,16 @@
         <v>71700</v>
       </c>
       <c r="JJ63" s="11">
-        <v>72500</v>
+        <v>72800</v>
+      </c>
+      <c r="JK63" s="11">
+        <v>71600</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>71000</v>
       </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>72</v>
       </c>
@@ -48039,10 +48375,16 @@
         <v>42100</v>
       </c>
       <c r="JJ64" s="11">
-        <v>42500</v>
+        <v>42900</v>
+      </c>
+      <c r="JK64" s="11">
+        <v>42200</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>42000</v>
       </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>73</v>
       </c>
@@ -48851,8 +49193,14 @@
       <c r="JJ65" s="11">
         <v>16200</v>
       </c>
+      <c r="JK65" s="11">
+        <v>15600</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>74</v>
       </c>
@@ -49661,8 +50009,14 @@
       <c r="JJ66" s="11">
         <v>9200</v>
       </c>
+      <c r="JK66" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -50469,10 +50823,16 @@
         <v>16900</v>
       </c>
       <c r="JJ67" s="11">
-        <v>17100</v>
+        <v>17500</v>
+      </c>
+      <c r="JK67" s="11">
+        <v>17400</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>17300</v>
       </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>77</v>
       </c>
@@ -51279,10 +51639,16 @@
         <v>29600</v>
       </c>
       <c r="JJ68" s="11">
-        <v>30000</v>
+        <v>29900</v>
+      </c>
+      <c r="JK68" s="11">
+        <v>29400</v>
+      </c>
+      <c r="JL68" s="11">
+        <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>78</v>
       </c>
@@ -52089,10 +52455,16 @@
         <v>24400</v>
       </c>
       <c r="JJ69" s="11">
-        <v>25100</v>
+        <v>25000</v>
+      </c>
+      <c r="JK69" s="11">
+        <v>24500</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>24100</v>
       </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>80</v>
       </c>
@@ -52899,10 +53271,16 @@
         <v>253300</v>
       </c>
       <c r="JJ70" s="11">
-        <v>259800</v>
+        <v>260400</v>
+      </c>
+      <c r="JK70" s="11">
+        <v>262800</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>266900</v>
       </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>81</v>
       </c>
@@ -53709,10 +54087,16 @@
         <v>147400</v>
       </c>
       <c r="JJ71" s="11">
-        <v>150000</v>
+        <v>150200</v>
+      </c>
+      <c r="JK71" s="11">
+        <v>151100</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>154600</v>
       </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>82</v>
       </c>
@@ -54521,8 +54905,14 @@
       <c r="JJ72" s="11">
         <v>12700</v>
       </c>
+      <c r="JK72" s="11">
+        <v>12800</v>
+      </c>
+      <c r="JL72" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>83</v>
       </c>
@@ -55329,10 +55719,16 @@
         <v>27100</v>
       </c>
       <c r="JJ73" s="11">
+        <v>27200</v>
+      </c>
+      <c r="JK73" s="11">
         <v>26900</v>
       </c>
+      <c r="JL73" s="11">
+        <v>28100</v>
+      </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>84</v>
       </c>
@@ -56141,8 +56537,14 @@
       <c r="JJ74" s="11">
         <v>41500</v>
       </c>
+      <c r="JK74" s="11">
+        <v>41700</v>
+      </c>
+      <c r="JL74" s="11">
+        <v>43400</v>
+      </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>86</v>
       </c>
@@ -56951,8 +57353,14 @@
       <c r="JJ75" s="11">
         <v>23900</v>
       </c>
+      <c r="JK75" s="11">
+        <v>24100</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>23700</v>
+      </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>87</v>
       </c>
@@ -57759,10 +58167,16 @@
         <v>82000</v>
       </c>
       <c r="JJ76" s="11">
-        <v>85900</v>
+        <v>86300</v>
+      </c>
+      <c r="JK76" s="11">
+        <v>87600</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>88600</v>
       </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>88</v>
       </c>
@@ -58569,10 +58983,16 @@
         <v>78100</v>
       </c>
       <c r="JJ77" s="11">
-        <v>81900</v>
+        <v>82300</v>
+      </c>
+      <c r="JK77" s="11">
+        <v>83600</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>84700</v>
       </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>89</v>
       </c>
@@ -59379,10 +59799,16 @@
         <v>30000</v>
       </c>
       <c r="JJ78" s="11">
-        <v>32100</v>
+        <v>31400</v>
+      </c>
+      <c r="JK78" s="11">
+        <v>32000</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>32600</v>
       </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>90</v>
       </c>
@@ -60189,10 +60615,16 @@
         <v>23400</v>
       </c>
       <c r="JJ79" s="11">
-        <v>23600</v>
+        <v>23300</v>
+      </c>
+      <c r="JK79" s="11">
+        <v>23200</v>
+      </c>
+      <c r="JL79" s="11">
+        <v>23300</v>
       </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>92</v>
       </c>
@@ -61001,8 +61433,14 @@
       <c r="JJ80" s="11">
         <v>4000</v>
       </c>
+      <c r="JK80" s="11">
+        <v>4000</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>96</v>
       </c>
@@ -61809,10 +62247,16 @@
         <v>211300</v>
       </c>
       <c r="JJ81" s="11">
-        <v>214200</v>
+        <v>214000</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>216000</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>213900</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>97</v>
       </c>
@@ -62619,10 +63063,16 @@
         <v>24800</v>
       </c>
       <c r="JJ82" s="11">
-        <v>26300</v>
+        <v>26200</v>
+      </c>
+      <c r="JK82" s="11">
+        <v>27100</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>27400</v>
       </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>98</v>
       </c>
@@ -63429,10 +63879,16 @@
         <v>8800</v>
       </c>
       <c r="JJ83" s="11">
-        <v>9700</v>
+        <v>9600</v>
+      </c>
+      <c r="JK83" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>100</v>
       </c>
@@ -64239,10 +64695,16 @@
         <v>186500</v>
       </c>
       <c r="JJ84" s="11">
-        <v>187900</v>
+        <v>187800</v>
+      </c>
+      <c r="JK84" s="11">
+        <v>188900</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>186500</v>
       </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>101</v>
       </c>
@@ -65049,10 +65511,16 @@
         <v>81900</v>
       </c>
       <c r="JJ85" s="11">
-        <v>82400</v>
+        <v>82900</v>
+      </c>
+      <c r="JK85" s="11">
+        <v>84100</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>81500</v>
       </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>102</v>
       </c>
@@ -65861,8 +66329,14 @@
       <c r="JJ86" s="11">
         <v>23000</v>
       </c>
+      <c r="JK86" s="11">
+        <v>22800</v>
+      </c>
+      <c r="JL86" s="11">
+        <v>22700</v>
+      </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>103</v>
       </c>
@@ -66669,10 +67143,16 @@
         <v>27400</v>
       </c>
       <c r="JJ87" s="11">
-        <v>27600</v>
+        <v>26900</v>
+      </c>
+      <c r="JK87" s="11">
+        <v>26900</v>
+      </c>
+      <c r="JL87" s="11">
+        <v>26800</v>
       </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>104</v>
       </c>
@@ -67479,10 +67959,16 @@
         <v>54600</v>
       </c>
       <c r="JJ88" s="11">
-        <v>54900</v>
+        <v>55000</v>
+      </c>
+      <c r="JK88" s="11">
+        <v>55100</v>
+      </c>
+      <c r="JL88" s="11">
+        <v>55500</v>
       </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>105</v>
       </c>
@@ -68289,10 +68775,16 @@
         <v>163100</v>
       </c>
       <c r="JJ89" s="11">
-        <v>168500</v>
+        <v>168100</v>
+      </c>
+      <c r="JK89" s="11">
+        <v>169300</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>168000</v>
       </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>106</v>
       </c>
@@ -69101,8 +69593,14 @@
       <c r="JJ90" s="11">
         <v>21200</v>
       </c>
+      <c r="JK90" s="11">
+        <v>21200</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>20400</v>
+      </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>107</v>
       </c>
@@ -69911,8 +70409,14 @@
       <c r="JJ91" s="11">
         <v>13300</v>
       </c>
+      <c r="JK91" s="11">
+        <v>13000</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -70719,10 +71223,16 @@
         <v>142900</v>
       </c>
       <c r="JJ92" s="11">
-        <v>147300</v>
+        <v>146900</v>
+      </c>
+      <c r="JK92" s="11">
+        <v>148100</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>147600</v>
       </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -71531,8 +72041,14 @@
       <c r="JJ93" s="11">
         <v>23000</v>
       </c>
+      <c r="JK93" s="11">
+        <v>22900</v>
+      </c>
+      <c r="JL93" s="11">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>111</v>
       </c>
@@ -72339,10 +72855,16 @@
         <v>119900</v>
       </c>
       <c r="JJ94" s="11">
-        <v>124300</v>
+        <v>123900</v>
+      </c>
+      <c r="JK94" s="11">
+        <v>125200</v>
+      </c>
+      <c r="JL94" s="11">
+        <v>124600</v>
       </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>112</v>
       </c>
@@ -72789,10 +73311,16 @@
         <v>113800</v>
       </c>
       <c r="JJ95" s="11">
-        <v>117800</v>
+        <v>117300</v>
+      </c>
+      <c r="JK95" s="11">
+        <v>118900</v>
+      </c>
+      <c r="JL95" s="11">
+        <v>118200</v>
       </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>116</v>
       </c>
@@ -73599,10 +74127,16 @@
         <v>49900</v>
       </c>
       <c r="JJ96" s="11">
-        <v>51200</v>
+        <v>51100</v>
+      </c>
+      <c r="JK96" s="11">
+        <v>51800</v>
+      </c>
+      <c r="JL96" s="11">
+        <v>51400</v>
       </c>
     </row>
-    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>117</v>
       </c>
@@ -74409,10 +74943,16 @@
         <v>12100</v>
       </c>
       <c r="JJ97" s="11">
-        <v>12100</v>
+        <v>12200</v>
+      </c>
+      <c r="JK97" s="11">
+        <v>12300</v>
+      </c>
+      <c r="JL97" s="11">
+        <v>12400</v>
       </c>
     </row>
-    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>118</v>
       </c>
@@ -75219,10 +75759,16 @@
         <v>17900</v>
       </c>
       <c r="JJ98" s="11">
-        <v>18500</v>
+        <v>18300</v>
+      </c>
+      <c r="JK98" s="11">
+        <v>18800</v>
+      </c>
+      <c r="JL98" s="11">
+        <v>18100</v>
       </c>
     </row>
-    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>119</v>
       </c>
@@ -76031,8 +76577,14 @@
       <c r="JJ99" s="11">
         <v>20600</v>
       </c>
+      <c r="JK99" s="11">
+        <v>20700</v>
+      </c>
+      <c r="JL99" s="11">
+        <v>20900</v>
+      </c>
     </row>
-    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>120</v>
       </c>
@@ -76839,10 +77391,16 @@
         <v>234200</v>
       </c>
       <c r="JJ100" s="11">
-        <v>239300</v>
+        <v>240200</v>
+      </c>
+      <c r="JK100" s="11">
+        <v>241800</v>
+      </c>
+      <c r="JL100" s="11">
+        <v>241000</v>
       </c>
     </row>
-    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>121</v>
       </c>
@@ -77651,8 +78209,14 @@
       <c r="JJ101" s="11">
         <v>48000</v>
       </c>
+      <c r="JK101" s="11">
+        <v>48400</v>
+      </c>
+      <c r="JL101" s="11">
+        <v>48400</v>
+      </c>
     </row>
-    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>122</v>
       </c>
@@ -78461,8 +79025,14 @@
       <c r="JJ102" s="11">
         <v>23300</v>
       </c>
+      <c r="JK102" s="11">
+        <v>23600</v>
+      </c>
+      <c r="JL102" s="11">
+        <v>23600</v>
+      </c>
     </row>
-    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>123</v>
       </c>
@@ -79271,8 +79841,14 @@
       <c r="JJ103" s="11">
         <v>24700</v>
       </c>
+      <c r="JK103" s="11">
+        <v>24800</v>
+      </c>
+      <c r="JL103" s="11">
+        <v>24800</v>
+      </c>
     </row>
-    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>124</v>
       </c>
@@ -80079,10 +80655,16 @@
         <v>186200</v>
       </c>
       <c r="JJ104" s="11">
-        <v>191300</v>
+        <v>192200</v>
+      </c>
+      <c r="JK104" s="11">
+        <v>193400</v>
+      </c>
+      <c r="JL104" s="11">
+        <v>192600</v>
       </c>
     </row>
-    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>125</v>
       </c>
@@ -80889,10 +81471,16 @@
         <v>49600</v>
       </c>
       <c r="JJ105" s="11">
-        <v>52800</v>
+        <v>53300</v>
+      </c>
+      <c r="JK105" s="11">
+        <v>54800</v>
+      </c>
+      <c r="JL105" s="11">
+        <v>55300</v>
       </c>
     </row>
-    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>126</v>
       </c>
@@ -81699,10 +82287,16 @@
         <v>31900</v>
       </c>
       <c r="JJ106" s="11">
-        <v>35000</v>
+        <v>35500</v>
+      </c>
+      <c r="JK106" s="11">
+        <v>37000</v>
+      </c>
+      <c r="JL106" s="11">
+        <v>37600</v>
       </c>
     </row>
-    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>127</v>
       </c>
@@ -82511,8 +83105,14 @@
       <c r="JJ107" s="11">
         <v>17800</v>
       </c>
+      <c r="JK107" s="11">
+        <v>17800</v>
+      </c>
+      <c r="JL107" s="11">
+        <v>17700</v>
+      </c>
     </row>
-    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>128</v>
       </c>
@@ -83319,10 +83919,16 @@
         <v>136600</v>
       </c>
       <c r="JJ108" s="11">
-        <v>138500</v>
+        <v>138900</v>
+      </c>
+      <c r="JK108" s="11">
+        <v>138600</v>
+      </c>
+      <c r="JL108" s="11">
+        <v>137300</v>
       </c>
     </row>
-    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>129</v>
       </c>
@@ -84129,10 +84735,16 @@
         <v>67700</v>
       </c>
       <c r="JJ109" s="11">
-        <v>70300</v>
+        <v>70700</v>
+      </c>
+      <c r="JK109" s="11">
+        <v>72000</v>
+      </c>
+      <c r="JL109" s="11">
+        <v>71600</v>
       </c>
     </row>
-    <row r="110" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>130</v>
       </c>
@@ -84941,8 +85553,14 @@
       <c r="JJ110" s="11">
         <v>68200</v>
       </c>
+      <c r="JK110" s="11">
+        <v>66600</v>
+      </c>
+      <c r="JL110" s="11">
+        <v>65700</v>
+      </c>
     </row>
-    <row r="111" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>131</v>
       </c>
@@ -85751,8 +86369,14 @@
       <c r="JJ111" s="11">
         <v>22300</v>
       </c>
+      <c r="JK111" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JL111" s="11">
+        <v>20100</v>
+      </c>
     </row>
-    <row r="112" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>132</v>
       </c>
@@ -86561,8 +87185,14 @@
       <c r="JJ112" s="11">
         <v>18900</v>
       </c>
+      <c r="JK112" s="11">
+        <v>18900</v>
+      </c>
+      <c r="JL112" s="11">
+        <v>18700</v>
+      </c>
     </row>
-    <row r="113" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>133</v>
       </c>
@@ -87371,8 +88001,14 @@
       <c r="JJ113" s="11">
         <v>27000</v>
       </c>
+      <c r="JK113" s="11">
+        <v>27200</v>
+      </c>
+      <c r="JL113" s="11">
+        <v>26900</v>
+      </c>
     </row>
-    <row r="115" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>253</v>
       </c>
@@ -87385,7 +88021,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>16</v>
       </c>
@@ -87398,7 +88034,7 @@
       <c r="H116" s="14"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>254</v>
       </c>
@@ -87411,7 +88047,7 @@
       <c r="H117" s="14"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>255</v>
       </c>
@@ -87424,7 +88060,7 @@
       <c r="H118" s="14"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>256</v>
       </c>
@@ -87437,7 +88073,7 @@
       <c r="H119" s="14"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>257</v>
       </c>
@@ -87450,7 +88086,7 @@
       <c r="H120" s="14"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>258</v>
       </c>
@@ -87463,7 +88099,7 @@
       <c r="H121" s="14"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>259</v>
       </c>
